--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3596.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3596.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.846819243434759</v>
+        <v>1.295571327209473</v>
       </c>
       <c r="B1">
-        <v>4.182231916328658</v>
+        <v>3.839211940765381</v>
       </c>
       <c r="C1">
-        <v>3.797304523083793</v>
+        <v>3.936913013458252</v>
       </c>
       <c r="D1">
-        <v>1.11200740395088</v>
+        <v>1.726462721824646</v>
       </c>
       <c r="E1">
-        <v>0.7620901507339524</v>
+        <v>1.213523626327515</v>
       </c>
     </row>
   </sheetData>
